--- a/data_excel/563.xlsx
+++ b/data_excel/563.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,9 +69,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>顆</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,14 +207,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -519,7 +536,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -584,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -597,8 +614,8 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -606,19 +623,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -626,7 +643,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -635,27 +652,27 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -666,7 +683,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -677,18 +694,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -699,37 +716,37 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -740,18 +757,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>

--- a/data_excel/563.xlsx
+++ b/data_excel/563.xlsx
@@ -126,15 +126,15 @@
     <t>45</t>
   </si>
   <si>
-    <t>nv</t>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -738,10 +738,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
